--- a/tests/Feature/config/otp_realistic.xlsx
+++ b/tests/Feature/config/otp_realistic.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="private" sheetId="1" r:id="rId4"/>
-    <sheet name="Salary" sheetId="2" r:id="rId5"/>
+    <sheet name="income" sheetId="2" r:id="rId5"/>
     <sheet name="OTP" sheetId="3" r:id="rId6"/>
     <sheet name="Statistics" sheetId="4" r:id="rId7"/>
   </sheets>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
   <si>
     <t>private</t>
   </si>
@@ -137,10 +137,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Salary</t>
-  </si>
-  <si>
-    <t>salary</t>
+    <t>income</t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
@@ -148,7 +145,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">SalaryPercent is: 24000 transfer add 24000 to otp.2023.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">IncomePercent is: 24000 transfer add 24000 to otp.2023.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
@@ -224,72 +221,72 @@
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0OTP fra 2038, -1/14 av formuen fra pensjonsåret Asset rule Divisor is: 851390 new rule: 1/13 transfer 851390 to income.2038.income.amount reduce otp.2038 by 851390
+Using previous value: 0OTP fra 2038, 1/14 av formuen fra pensjonsåret Asset rule Divisor is: 303195 new rule: 1/13 transfer 303195 to income.2038.income.amount reduce otp.2038 by 303195
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 910988 new rule: 1/12 transfer 910988 to income.2039.income.amount reduce otp.2039 by 910988
+Using previous value: 0 Asset rule Divisor is: 324419 new rule: 1/12 transfer 324419 to income.2039.income.amount reduce otp.2039 by 324419
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 974757 new rule: 1/11 transfer 974757 to income.2040.income.amount reduce otp.2040 by 974757
+Using previous value: 0 Asset rule Divisor is: 347128 new rule: 1/11 transfer 347128 to income.2040.income.amount reduce otp.2040 by 347128
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 1042990 new rule: 1/10 transfer 1042990 to income.2041.income.amount reduce otp.2041 by 1042990
+Using previous value: 0 Asset rule Divisor is: 371427 new rule: 1/10 transfer 371427 to income.2041.income.amount reduce otp.2041 by 371427
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 1115999 new rule: 1/9 transfer 1115999 to income.2042.income.amount reduce otp.2042 by 1115999
+Using previous value: 0 Asset rule Divisor is: 397427 new rule: 1/9 transfer 397427 to income.2042.income.amount reduce otp.2042 by 397427
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 1194119 new rule: 1/8 transfer 1194119 to income.2043.income.amount reduce otp.2043 by 1194119
+Using previous value: 0 Asset rule Divisor is: 425247 new rule: 1/8 transfer 425247 to income.2043.income.amount reduce otp.2043 by 425247
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 1277707 new rule: 1/7 transfer 1277707 to income.2044.income.amount reduce otp.2044 by 1277707
+Using previous value: 0 Asset rule Divisor is: 455015 new rule: 1/7 transfer 455015 to income.2044.income.amount reduce otp.2044 by 455015
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 1367147 new rule: 1/6 transfer 1367147 to income.2045.income.amount reduce otp.2045 by 1367147
+Using previous value: 0 Asset rule Divisor is: 486865 new rule: 1/6 transfer 486865 to income.2045.income.amount reduce otp.2045 by 486865
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 1462847 new rule: 1/5 transfer 1462847 to income.2046.income.amount reduce otp.2046 by 1462847
+Using previous value: 0 Asset rule Divisor is: 520946 new rule: 1/5 transfer 520946 to income.2046.income.amount reduce otp.2046 by 520946
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 1565247 new rule: 1/4 transfer 1565247 to income.2047.income.amount reduce otp.2047 by 1565247
+Using previous value: 0 Asset rule Divisor is: 557412 new rule: 1/4 transfer 557412 to income.2047.income.amount reduce otp.2047 by 557412
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 1674814 new rule: 1/3 transfer 1674814 to income.2048.income.amount reduce otp.2048 by 1674814
+Using previous value: 0 Asset rule Divisor is: 596432 new rule: 1/3 transfer 596432 to income.2048.income.amount reduce otp.2048 by 596432
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 1792051 new rule: 1/2 transfer 1792051 to income.2049.income.amount reduce otp.2049 by 1792051
+Using previous value: 0 Asset rule Divisor is: 638182 new rule: 1/2 transfer 638182 to income.2049.income.amount reduce otp.2049 by 638182
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 1917494 new rule: 1/1 transfer 1917494 to income.2050.income.amount reduce otp.2050 by 1917494
+Using previous value: 0 Asset rule Divisor is: 682854 new rule: 1/1 transfer 682854 to income.2050.income.amount reduce otp.2050 by 682854
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 2051719 new rule:  transfer 2051719 to income.2051.income.amount reduce otp.2051 by 2051719
+Using previous value: 0 Asset rule Divisor is: 730654 new rule:  transfer 730654 to income.2051.income.amount reduce otp.2051 by 730654
 </t>
   </si>
   <si>
@@ -702,7 +699,7 @@
   <cols>
     <col min="1" max="1" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -712,10 +709,10 @@
     <col min="10" max="10" width="37.705" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -898,7 +895,7 @@
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="1">
@@ -970,7 +967,7 @@
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="1">
@@ -1042,7 +1039,7 @@
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="1">
@@ -1114,7 +1111,7 @@
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="1">
@@ -1186,7 +1183,7 @@
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="1">
@@ -1258,7 +1255,7 @@
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="1">
@@ -1330,7 +1327,7 @@
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="1">
@@ -1402,7 +1399,7 @@
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="1">
@@ -1474,7 +1471,7 @@
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="1">
@@ -1546,7 +1543,7 @@
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="1">
@@ -1618,7 +1615,7 @@
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="1">
@@ -1690,7 +1687,7 @@
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="1">
@@ -1762,7 +1759,7 @@
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="1">
@@ -1834,7 +1831,7 @@
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="1">
@@ -1906,7 +1903,7 @@
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="1">
@@ -1978,7 +1975,7 @@
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="1">
@@ -2050,7 +2047,7 @@
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="1">
@@ -2122,7 +2119,7 @@
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="1">
@@ -2194,7 +2191,7 @@
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="1">
@@ -2266,7 +2263,7 @@
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="1">
@@ -2338,7 +2335,7 @@
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="1">
@@ -2410,7 +2407,7 @@
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="1">
@@ -2482,7 +2479,7 @@
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="1">
@@ -2554,7 +2551,7 @@
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="1">
@@ -2626,7 +2623,7 @@
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="1">
@@ -2698,7 +2695,7 @@
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="1">
@@ -2770,7 +2767,7 @@
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="1">
@@ -2842,7 +2839,7 @@
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="1">
@@ -2914,7 +2911,7 @@
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="1">
@@ -2986,7 +2983,7 @@
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="1">
@@ -3058,7 +3055,7 @@
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="1">
@@ -3130,28 +3127,30 @@
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="1">
         <v>0</v>
       </c>
       <c r="P37" s="6">
-        <v>0</v>
+        <v>1080000</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="S37" s="2"/>
+        <v>864000.0</v>
+      </c>
+      <c r="S37" s="2">
+        <v>0.01</v>
+      </c>
       <c r="T37" s="1">
         <v>0.0</v>
       </c>
       <c r="U37" s="6">
-        <v>0.0</v>
+        <v>-8640.0</v>
       </c>
       <c r="V37" s="1">
-        <v>0</v>
+        <v>1080000</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="1">
@@ -3167,9 +3166,11 @@
         <v>0.0</v>
       </c>
       <c r="AB37">
-        <v>0.0</v>
-      </c>
-      <c r="AC37" s="2"/>
+        <v>43200.0</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>1.0</v>
+      </c>
       <c r="AD37"/>
     </row>
     <row r="38" spans="1:31">
@@ -3202,18 +3203,18 @@
       </c>
       <c r="L38" s="9"/>
       <c r="M38" s="8">
-        <v>-240000.0</v>
+        <v>0</v>
       </c>
       <c r="N38" s="9"/>
       <c r="O38" s="8">
         <v>0</v>
       </c>
       <c r="P38" s="8">
-        <v>788000</v>
+        <v>1212000</v>
       </c>
       <c r="Q38" s="9"/>
       <c r="R38" s="8">
-        <v>630400.0</v>
+        <v>969600.0</v>
       </c>
       <c r="S38" s="9">
         <v>0.01</v>
@@ -3222,10 +3223,10 @@
         <v>0.0</v>
       </c>
       <c r="U38" s="8">
-        <v>233696.0</v>
+        <v>470304.0</v>
       </c>
       <c r="V38" s="8">
-        <v>788000</v>
+        <v>1212000</v>
       </c>
       <c r="W38" s="9"/>
       <c r="X38" s="8">
@@ -3241,10 +3242,10 @@
         <v>0.0</v>
       </c>
       <c r="AB38" s="7">
-        <v>271520.0</v>
+        <v>528480.0</v>
       </c>
       <c r="AC38" s="9">
-        <v>0.53081013450109</v>
+        <v>1.0</v>
       </c>
       <c r="AD38" s="7"/>
     </row>
@@ -3278,18 +3279,18 @@
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="1">
-        <v>-252000.0</v>
+        <v>0</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="1">
         <v>0</v>
       </c>
       <c r="P39" s="6">
-        <v>1169200</v>
+        <v>1358400</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="1">
-        <v>935360.0</v>
+        <v>1086720.0</v>
       </c>
       <c r="S39" s="2">
         <v>0.01</v>
@@ -3298,10 +3299,10 @@
         <v>0.0</v>
       </c>
       <c r="U39" s="6">
-        <v>242646.4</v>
+        <v>493132.8</v>
       </c>
       <c r="V39" s="1">
-        <v>1169200</v>
+        <v>1358400</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="1">
@@ -3317,10 +3318,10 @@
         <v>0.0</v>
       </c>
       <c r="AB39">
-        <v>298768.0</v>
+        <v>558336.0</v>
       </c>
       <c r="AC39" s="2">
-        <v>0.54245707811638</v>
+        <v>1.0</v>
       </c>
       <c r="AD39"/>
     </row>
@@ -3354,18 +3355,18 @@
       </c>
       <c r="L40" s="12"/>
       <c r="M40" s="11">
-        <v>-264600.0</v>
+        <v>0</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="11">
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <v>1568564</v>
+        <v>1479948</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>1254851.2</v>
+        <v>1183958.4</v>
       </c>
       <c r="S40" s="12">
         <v>0.01</v>
@@ -3374,10 +3375,10 @@
         <v>0.0</v>
       </c>
       <c r="U40" s="11">
-        <v>252051.488</v>
+        <v>517360.416</v>
       </c>
       <c r="V40" s="11">
-        <v>1568564</v>
+        <v>1479948</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
@@ -3393,10 +3394,10 @@
         <v>0.0</v>
       </c>
       <c r="AB40" s="10">
-        <v>327343.0</v>
+        <v>588398.0</v>
       </c>
       <c r="AC40" s="12">
-        <v>0.55299791250016</v>
+        <v>1.0000001359624</v>
       </c>
       <c r="AD40" s="10"/>
     </row>
@@ -3430,18 +3431,18 @@
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="1">
-        <v>-277830.0</v>
+        <v>0</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="1">
         <v>0</v>
       </c>
       <c r="P41" s="6">
-        <v>2011759</v>
+        <v>1611327</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>1609407.2</v>
+        <v>1289061.6</v>
       </c>
       <c r="S41" s="2">
         <v>0.01</v>
@@ -3450,10 +3451,10 @@
         <v>0.0</v>
       </c>
       <c r="U41" s="6">
-        <v>261735.928</v>
+        <v>542769.384</v>
       </c>
       <c r="V41" s="1">
-        <v>2011759</v>
+        <v>1611327</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
@@ -3469,10 +3470,10 @@
         <v>0.0</v>
       </c>
       <c r="AB41">
-        <v>358300.0</v>
+        <v>620113.0</v>
       </c>
       <c r="AC41" s="2">
-        <v>0.5632493314735</v>
+        <v>0.99999987099127</v>
       </c>
       <c r="AD41"/>
     </row>
@@ -3506,30 +3507,30 @@
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="1">
-        <v>-291721.5</v>
+        <v>0</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="1">
         <v>0</v>
       </c>
       <c r="P42" s="6">
-        <v>2502646</v>
+        <v>1753292</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>2002116.8</v>
+        <v>1402633.6</v>
       </c>
       <c r="S42" s="2">
         <v>0.01</v>
       </c>
       <c r="T42" s="1">
-        <v>3021.168</v>
+        <v>0.0</v>
       </c>
       <c r="U42" s="6">
-        <v>271700.332</v>
+        <v>569416.664</v>
       </c>
       <c r="V42" s="1">
-        <v>2502646</v>
+        <v>1753292</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
@@ -3545,10 +3546,10 @@
         <v>0.0</v>
       </c>
       <c r="AB42">
-        <v>391828.0</v>
+        <v>653575.0</v>
       </c>
       <c r="AC42" s="2">
-        <v>0.57322604775395</v>
+        <v>1.0000004896151</v>
       </c>
       <c r="AD42"/>
     </row>
@@ -3582,30 +3583,30 @@
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="1">
-        <v>-306307.5</v>
+        <v>0</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="1">
         <v>0</v>
       </c>
       <c r="P43" s="6">
-        <v>3045403</v>
+        <v>1906653</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>2436322.4</v>
+        <v>1525322.4</v>
       </c>
       <c r="S43" s="2">
         <v>0.01</v>
       </c>
       <c r="T43" s="1">
-        <v>7363.224</v>
+        <v>0.0</v>
       </c>
       <c r="U43" s="6">
-        <v>281944.276</v>
+        <v>597361.776</v>
       </c>
       <c r="V43" s="1">
-        <v>3045403</v>
+        <v>1906653</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
@@ -3621,10 +3622,10 @@
         <v>0.0</v>
       </c>
       <c r="AB43">
-        <v>428124.0</v>
+        <v>688881.0</v>
       </c>
       <c r="AC43" s="2">
-        <v>0.5829328147206</v>
+        <v>0.99999982580449</v>
       </c>
       <c r="AD43"/>
     </row>
@@ -3658,30 +3659,30 @@
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="1">
-        <v>-321622.5</v>
+        <v>0</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="1">
         <v>0</v>
       </c>
       <c r="P44" s="6">
-        <v>3644525</v>
+        <v>2072281</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>2915620.0</v>
+        <v>1657824.8</v>
       </c>
       <c r="S44" s="2">
         <v>0.01</v>
       </c>
       <c r="T44" s="1">
-        <v>12156.2</v>
+        <v>0.0</v>
       </c>
       <c r="U44" s="6">
-        <v>292466.3</v>
+        <v>626666.752</v>
       </c>
       <c r="V44" s="1">
-        <v>3644525</v>
+        <v>2072281</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
@@ -3697,10 +3698,10 @@
         <v>0.0</v>
       </c>
       <c r="AB44">
-        <v>467404.0</v>
+        <v>726136.0</v>
       </c>
       <c r="AC44" s="2">
-        <v>0.5923809861779</v>
+        <v>0.99999966948351</v>
       </c>
       <c r="AD44"/>
     </row>
@@ -3734,30 +3735,30 @@
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="1">
-        <v>-337703.5</v>
+        <v>0</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="1">
         <v>0</v>
       </c>
       <c r="P45" s="6">
-        <v>4304882</v>
+        <v>2251111</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>3443905.6</v>
+        <v>1800888.8</v>
       </c>
       <c r="S45" s="2">
         <v>0.01</v>
       </c>
       <c r="T45" s="1">
-        <v>17439.056</v>
+        <v>1008.888</v>
       </c>
       <c r="U45" s="6">
-        <v>303264.444</v>
+        <v>657398.112</v>
       </c>
       <c r="V45" s="1">
-        <v>4304882</v>
+        <v>2251111</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
@@ -3773,10 +3774,10 @@
         <v>0.0</v>
       </c>
       <c r="AB45">
-        <v>509899.0</v>
+        <v>765451.0</v>
       </c>
       <c r="AC45" s="2">
-        <v>0.60157813638727</v>
+        <v>0.99999942517582</v>
       </c>
       <c r="AD45"/>
     </row>
@@ -3810,30 +3811,30 @@
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="1">
-        <v>-354588.5</v>
+        <v>0</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="1">
         <v>0</v>
       </c>
       <c r="P46" s="6">
-        <v>5031732</v>
+        <v>2444148</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>4025385.6</v>
+        <v>1955318.4</v>
       </c>
       <c r="S46" s="2">
         <v>0.01</v>
       </c>
       <c r="T46" s="1">
-        <v>23253.856</v>
+        <v>2553.184</v>
       </c>
       <c r="U46" s="6">
-        <v>314334.644</v>
+        <v>689623.816</v>
       </c>
       <c r="V46" s="1">
-        <v>5031732</v>
+        <v>2444148</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
@@ -3849,10 +3850,10 @@
         <v>0.0</v>
       </c>
       <c r="AB46">
-        <v>555858.0</v>
+        <v>806943.0</v>
       </c>
       <c r="AC46" s="2">
-        <v>0.61053355064507</v>
+        <v>1.0000000991396</v>
       </c>
       <c r="AD46"/>
     </row>
@@ -3886,30 +3887,30 @@
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="1">
-        <v>-372317.5</v>
+        <v>0</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="1">
         <v>0</v>
       </c>
       <c r="P47" s="6">
-        <v>5830737</v>
+        <v>2652470</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>4664589.6</v>
+        <v>2121976.0</v>
       </c>
       <c r="S47" s="2">
         <v>0.01</v>
       </c>
       <c r="T47" s="1">
-        <v>29645.896</v>
+        <v>4219.76</v>
       </c>
       <c r="U47" s="6">
-        <v>325671.604</v>
+        <v>723415.24</v>
       </c>
       <c r="V47" s="1">
-        <v>5830737</v>
+        <v>2652470</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
@@ -3925,10 +3926,10 @@
         <v>0.0</v>
       </c>
       <c r="AB47">
-        <v>605547.0</v>
+        <v>850734.0</v>
       </c>
       <c r="AC47" s="2">
-        <v>0.61925452083094</v>
+        <v>1.0000002350912</v>
       </c>
       <c r="AD47"/>
     </row>
@@ -3962,30 +3963,30 @@
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="1">
-        <v>-390933.0</v>
+        <v>0</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="1">
         <v>0</v>
       </c>
       <c r="P48" s="6">
-        <v>6708005</v>
+        <v>2877236</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>5366404.0</v>
+        <v>2301788.8</v>
       </c>
       <c r="S48" s="2">
         <v>0.01</v>
       </c>
       <c r="T48" s="1">
-        <v>36664.04</v>
+        <v>6017.888</v>
       </c>
       <c r="U48" s="6">
-        <v>337268.96</v>
+        <v>758848.112</v>
       </c>
       <c r="V48" s="1">
-        <v>6708005</v>
+        <v>2877236</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
@@ -4001,10 +4002,10 @@
         <v>0.0</v>
       </c>
       <c r="AB48">
-        <v>659253.0</v>
+        <v>896955.0</v>
       </c>
       <c r="AC48" s="2">
-        <v>0.62774867923422</v>
+        <v>0.99999950945166</v>
       </c>
       <c r="AD48"/>
     </row>
@@ -4038,30 +4039,30 @@
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="1">
-        <v>-410479.5</v>
+        <v>0</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="1">
         <v>0</v>
       </c>
       <c r="P49" s="6">
-        <v>7670141</v>
+        <v>3119691</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>6136112.8</v>
+        <v>2495752.8</v>
       </c>
       <c r="S49" s="2">
         <v>0.01</v>
       </c>
       <c r="T49" s="1">
-        <v>44361.128</v>
+        <v>7957.528</v>
       </c>
       <c r="U49" s="6">
-        <v>349118.372</v>
+        <v>796001.472</v>
       </c>
       <c r="V49" s="1">
-        <v>7670141</v>
+        <v>3119691</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
@@ -4077,10 +4078,10 @@
         <v>0.0</v>
       </c>
       <c r="AB49">
-        <v>717286.0</v>
+        <v>945747.0</v>
       </c>
       <c r="AC49" s="2">
-        <v>0.63602455207321</v>
+        <v>1.0000003806516</v>
       </c>
       <c r="AD49"/>
     </row>
@@ -4114,30 +4115,30 @@
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="1">
-        <v>-431003.0</v>
+        <v>0</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="1">
         <v>0</v>
       </c>
       <c r="P50" s="6">
-        <v>8724251</v>
+        <v>3381169</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>6979400.8</v>
+        <v>2704935.2</v>
       </c>
       <c r="S50" s="2">
         <v>0.01</v>
       </c>
       <c r="T50" s="1">
-        <v>52794.008</v>
+        <v>10049.352</v>
       </c>
       <c r="U50" s="6">
-        <v>361208.992</v>
+        <v>834956.648</v>
       </c>
       <c r="V50" s="1">
-        <v>8724251</v>
+        <v>3381169</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
@@ -4153,10 +4154,10 @@
         <v>0.0</v>
       </c>
       <c r="AB50">
-        <v>779973.0</v>
+        <v>997253.0</v>
       </c>
       <c r="AC50" s="2">
-        <v>0.64408623642133</v>
+        <v>1.0000002406612</v>
       </c>
       <c r="AD50"/>
     </row>
@@ -4190,30 +4191,30 @@
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="1">
-        <v>-452553.0</v>
+        <v>0</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="1">
         <v>0</v>
       </c>
       <c r="P51" s="6">
-        <v>9878009</v>
+        <v>3663106</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>7902407.2</v>
+        <v>2930484.8</v>
       </c>
       <c r="S51" s="2">
         <v>0.01</v>
       </c>
       <c r="T51" s="1">
-        <v>62024.072</v>
+        <v>12304.848</v>
       </c>
       <c r="U51" s="6">
-        <v>373528.928</v>
+        <v>875801.152</v>
       </c>
       <c r="V51" s="1">
-        <v>9878009</v>
+        <v>3663106</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
@@ -4229,10 +4230,10 @@
         <v>0.0</v>
       </c>
       <c r="AB51">
-        <v>847673.0</v>
+        <v>1051630.0</v>
       </c>
       <c r="AC51" s="2">
-        <v>0.65194263558847</v>
+        <v>0.9999997717829</v>
       </c>
       <c r="AD51"/>
     </row>
@@ -4266,30 +4267,30 @@
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="1">
-        <v>-475180.5</v>
+        <v>0</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="1">
         <v>0</v>
       </c>
       <c r="P52" s="6">
-        <v>11139686</v>
+        <v>3967041</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>8911748.8</v>
+        <v>3173632.8</v>
       </c>
       <c r="S52" s="2">
         <v>0.01</v>
       </c>
       <c r="T52" s="1">
-        <v>72117.488</v>
+        <v>14736.328</v>
       </c>
       <c r="U52" s="6">
-        <v>386063.012</v>
+        <v>918624.672</v>
       </c>
       <c r="V52" s="1">
-        <v>11139686</v>
+        <v>3967041</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
@@ -4305,10 +4306,10 @@
         <v>0.0</v>
       </c>
       <c r="AB52">
-        <v>920768.0</v>
+        <v>1109043.0</v>
       </c>
       <c r="AC52" s="2">
-        <v>0.65960029297357</v>
+        <v>1.0000003246043</v>
       </c>
       <c r="AD52"/>
     </row>
@@ -4320,7 +4321,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>851390.0</v>
+        <v>303195.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
@@ -4342,30 +4343,30 @@
       </c>
       <c r="L53" s="14"/>
       <c r="M53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N53" s="14"/>
       <c r="O53" s="13">
         <v>0</v>
       </c>
       <c r="P53" s="13">
-        <v>11068074.0</v>
+        <v>3941539.0</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>8854459.2</v>
+        <v>3153231.2</v>
       </c>
       <c r="S53" s="14">
         <v>0.01</v>
       </c>
       <c r="T53" s="13">
-        <v>71544.592</v>
+        <v>14532.312</v>
       </c>
       <c r="U53" s="13">
-        <v>-88544.592</v>
+        <v>-31532.312</v>
       </c>
       <c r="V53" s="13">
-        <v>11068074.0</v>
+        <v>3941539.0</v>
       </c>
       <c r="W53" s="14"/>
       <c r="X53" s="13">
@@ -4381,10 +4382,10 @@
         <v>0.0</v>
       </c>
       <c r="AB53" s="3">
-        <v>442723.0</v>
+        <v>157662.0</v>
       </c>
       <c r="AC53" s="14">
-        <v>1.00000009035</v>
+        <v>1.0000027907881</v>
       </c>
       <c r="AD53" s="3"/>
     </row>
@@ -4396,7 +4397,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>910988.0</v>
+        <v>324419.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
@@ -4418,30 +4419,30 @@
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="1">
         <v>0</v>
       </c>
       <c r="P54" s="6">
-        <v>10931851.0</v>
+        <v>3893028.0</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>8745480.8</v>
+        <v>3114422.4</v>
       </c>
       <c r="S54" s="2">
         <v>0.01</v>
       </c>
       <c r="T54" s="1">
-        <v>70454.808</v>
+        <v>14144.224</v>
       </c>
       <c r="U54" s="6">
-        <v>-87454.808</v>
+        <v>-31144.224</v>
       </c>
       <c r="V54" s="1">
-        <v>10931851.0</v>
+        <v>3893028.0</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="1">
@@ -4457,10 +4458,10 @@
         <v>0.0</v>
       </c>
       <c r="AB54">
-        <v>437274.0</v>
+        <v>155721.0</v>
       </c>
       <c r="AC54" s="2">
-        <v>0.99999990852418</v>
+        <v>0.99999922939162</v>
       </c>
       <c r="AD54"/>
     </row>
@@ -4472,7 +4473,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>974757.0</v>
+        <v>347128.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
@@ -4494,30 +4495,30 @@
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="1">
         <v>0</v>
       </c>
       <c r="P55" s="6">
-        <v>10722324.0</v>
+        <v>3818412.0</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>8577859.2</v>
+        <v>3054729.6</v>
       </c>
       <c r="S55" s="2">
         <v>0.01</v>
       </c>
       <c r="T55" s="1">
-        <v>68778.592</v>
+        <v>13547.296</v>
       </c>
       <c r="U55" s="6">
-        <v>-85778.592</v>
+        <v>-30547.296</v>
       </c>
       <c r="V55" s="1">
-        <v>10722324.0</v>
+        <v>3818412.0</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="1">
@@ -4533,10 +4534,10 @@
         <v>0.0</v>
       </c>
       <c r="AB55">
-        <v>428893.0</v>
+        <v>152736.0</v>
       </c>
       <c r="AC55" s="2">
-        <v>1.0000000932634</v>
+        <v>0.99999685733232</v>
       </c>
       <c r="AD55"/>
     </row>
@@ -4548,7 +4549,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>1042990.0</v>
+        <v>371427.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
@@ -4570,30 +4571,30 @@
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="1">
         <v>0</v>
       </c>
       <c r="P56" s="6">
-        <v>10429897.0</v>
+        <v>3714274.0</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>8343917.6</v>
+        <v>2971419.2</v>
       </c>
       <c r="S56" s="2">
         <v>0.01</v>
       </c>
       <c r="T56" s="1">
-        <v>66439.176</v>
+        <v>12714.192</v>
       </c>
       <c r="U56" s="6">
-        <v>-83439.176</v>
+        <v>-29714.192</v>
       </c>
       <c r="V56" s="1">
-        <v>10429897.0</v>
+        <v>3714274.0</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="1">
@@ -4609,10 +4610,10 @@
         <v>0.0</v>
       </c>
       <c r="AB56">
-        <v>417196.0</v>
+        <v>148571.0</v>
       </c>
       <c r="AC56" s="2">
-        <v>1.0000002876347</v>
+        <v>1.0000002692316</v>
       </c>
       <c r="AD56"/>
     </row>
@@ -4624,7 +4625,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>1115999.0</v>
+        <v>397427.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
@@ -4646,30 +4647,30 @@
       </c>
       <c r="L57" s="14"/>
       <c r="M57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N57" s="14"/>
       <c r="O57" s="13">
         <v>0</v>
       </c>
       <c r="P57" s="13">
-        <v>10043991.0</v>
+        <v>3576846.0</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>8035192.8</v>
+        <v>2861476.8</v>
       </c>
       <c r="S57" s="14">
         <v>0.01</v>
       </c>
       <c r="T57" s="13">
-        <v>63351.928</v>
+        <v>11614.768</v>
       </c>
       <c r="U57" s="13">
-        <v>-80351.928</v>
+        <v>-28614.768</v>
       </c>
       <c r="V57" s="13">
-        <v>10043991.0</v>
+        <v>3576846.0</v>
       </c>
       <c r="W57" s="14"/>
       <c r="X57" s="13">
@@ -4685,10 +4686,10 @@
         <v>0.0</v>
       </c>
       <c r="AB57" s="3">
-        <v>401760.0</v>
+        <v>143074.0</v>
       </c>
       <c r="AC57" s="14">
-        <v>1.0000008960582</v>
+        <v>1.0000011183037</v>
       </c>
       <c r="AD57" s="3"/>
     </row>
@@ -4700,7 +4701,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>1194119.0</v>
+        <v>425247.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
@@ -4722,30 +4723,30 @@
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="1">
         <v>0</v>
       </c>
       <c r="P58" s="6">
-        <v>9552951.0</v>
+        <v>3401978.0</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>7642360.8</v>
+        <v>2721582.4</v>
       </c>
       <c r="S58" s="2">
         <v>0.01</v>
       </c>
       <c r="T58" s="1">
-        <v>59423.608</v>
+        <v>10215.824</v>
       </c>
       <c r="U58" s="6">
-        <v>-76423.608</v>
+        <v>-27215.824</v>
       </c>
       <c r="V58" s="1">
-        <v>9552951.0</v>
+        <v>3401978.0</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="1">
@@ -4761,10 +4762,10 @@
         <v>0.0</v>
       </c>
       <c r="AB58">
-        <v>382118.0</v>
+        <v>136079.0</v>
       </c>
       <c r="AC58" s="2">
-        <v>0.9999998953203</v>
+        <v>0.99999911816008</v>
       </c>
       <c r="AD58"/>
     </row>
@@ -4776,7 +4777,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>1277707.0</v>
+        <v>455015.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
@@ -4798,30 +4799,30 @@
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="1">
         <v>0</v>
       </c>
       <c r="P59" s="6">
-        <v>8943951.0</v>
+        <v>3185101.0</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>7155160.8</v>
+        <v>2548080.8</v>
       </c>
       <c r="S59" s="2">
         <v>0.01</v>
       </c>
       <c r="T59" s="1">
-        <v>54551.608</v>
+        <v>8480.808</v>
       </c>
       <c r="U59" s="6">
-        <v>-71551.608</v>
+        <v>-25480.808</v>
       </c>
       <c r="V59" s="1">
-        <v>8943951.0</v>
+        <v>3185101.0</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="1">
@@ -4837,10 +4838,10 @@
         <v>0.0</v>
       </c>
       <c r="AB59">
-        <v>357758.0</v>
+        <v>127404.0</v>
       </c>
       <c r="AC59" s="2">
-        <v>0.99999988819259</v>
+        <v>0.99999968603821</v>
       </c>
       <c r="AD59"/>
     </row>
@@ -4852,7 +4853,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>1367147.0</v>
+        <v>486865.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
@@ -4874,30 +4875,30 @@
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="1">
         <v>0</v>
       </c>
       <c r="P60" s="6">
-        <v>8202881.0</v>
+        <v>2921193.0</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>6562304.8</v>
+        <v>2336954.4</v>
       </c>
       <c r="S60" s="2">
         <v>0.01</v>
       </c>
       <c r="T60" s="1">
-        <v>48623.048</v>
+        <v>6369.544</v>
       </c>
       <c r="U60" s="6">
-        <v>-65623.048</v>
+        <v>-23369.544</v>
       </c>
       <c r="V60" s="1">
-        <v>8202881.0</v>
+        <v>2921193.0</v>
       </c>
       <c r="W60" s="2"/>
       <c r="X60" s="1">
@@ -4913,10 +4914,10 @@
         <v>0.0</v>
       </c>
       <c r="AB60">
-        <v>328115.0</v>
+        <v>116848.0</v>
       </c>
       <c r="AC60" s="2">
-        <v>0.99999926854967</v>
+        <v>1.0000023962812</v>
       </c>
       <c r="AD60"/>
     </row>
@@ -4928,7 +4929,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>1462847.0</v>
+        <v>520946.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
@@ -4950,30 +4951,30 @@
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="1">
         <v>0</v>
       </c>
       <c r="P61" s="6">
-        <v>7314236.0</v>
+        <v>2604731.0</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>5851388.8</v>
+        <v>2083784.8</v>
       </c>
       <c r="S61" s="2">
         <v>0.01</v>
       </c>
       <c r="T61" s="1">
-        <v>41513.888</v>
+        <v>3837.848</v>
       </c>
       <c r="U61" s="6">
-        <v>-58513.888</v>
+        <v>-20837.848</v>
       </c>
       <c r="V61" s="1">
-        <v>7314236.0</v>
+        <v>2604731.0</v>
       </c>
       <c r="W61" s="2"/>
       <c r="X61" s="1">
@@ -4989,10 +4990,10 @@
         <v>0.0</v>
       </c>
       <c r="AB61">
-        <v>292569.0</v>
+        <v>104189.0</v>
       </c>
       <c r="AC61" s="2">
-        <v>0.99999849608353</v>
+        <v>0.99999769649918</v>
       </c>
       <c r="AD61"/>
     </row>
@@ -5004,7 +5005,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>1565247.0</v>
+        <v>557412.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
@@ -5026,30 +5027,30 @@
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="1">
         <v>0</v>
       </c>
       <c r="P62" s="6">
-        <v>6260986.0</v>
+        <v>2229650.0</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>5008788.8</v>
+        <v>1783720.0</v>
       </c>
       <c r="S62" s="2">
         <v>0.01</v>
       </c>
       <c r="T62" s="1">
-        <v>33087.888</v>
+        <v>837.2</v>
       </c>
       <c r="U62" s="6">
-        <v>-50087.888</v>
+        <v>-17837.2</v>
       </c>
       <c r="V62" s="1">
-        <v>6260986.0</v>
+        <v>2229650.0</v>
       </c>
       <c r="W62" s="2"/>
       <c r="X62" s="1">
@@ -5065,10 +5066,10 @@
         <v>0.0</v>
       </c>
       <c r="AB62">
-        <v>250439.0</v>
+        <v>89186.0</v>
       </c>
       <c r="AC62" s="2">
-        <v>0.99999824308823</v>
+        <v>1.0</v>
       </c>
       <c r="AD62"/>
     </row>
@@ -5080,7 +5081,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>1674814.0</v>
+        <v>596432.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
@@ -5102,30 +5103,30 @@
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="1">
         <v>0</v>
       </c>
       <c r="P63" s="6">
-        <v>5024441.0</v>
+        <v>1789294.0</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>4019552.8</v>
+        <v>1431435.2</v>
       </c>
       <c r="S63" s="2">
         <v>0.01</v>
       </c>
       <c r="T63" s="1">
-        <v>23195.528</v>
+        <v>0.0</v>
       </c>
       <c r="U63" s="6">
-        <v>-40195.528</v>
+        <v>-14314.352</v>
       </c>
       <c r="V63" s="1">
-        <v>5024441.0</v>
+        <v>1789294.0</v>
       </c>
       <c r="W63" s="2"/>
       <c r="X63" s="1">
@@ -5141,10 +5142,10 @@
         <v>0.0</v>
       </c>
       <c r="AB63">
-        <v>200978.0</v>
+        <v>71572.0</v>
       </c>
       <c r="AC63" s="2">
-        <v>1.000001791244</v>
+        <v>1.0000033532779</v>
       </c>
       <c r="AD63"/>
     </row>
@@ -5156,7 +5157,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>1792051.0</v>
+        <v>638182.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
@@ -5178,30 +5179,30 @@
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="1">
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <v>3584101.0</v>
+        <v>1276363.0</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>2867280.8</v>
+        <v>1021090.4</v>
       </c>
       <c r="S64" s="2">
         <v>0.01</v>
       </c>
       <c r="T64" s="1">
-        <v>11672.808</v>
+        <v>0.0</v>
       </c>
       <c r="U64" s="6">
-        <v>-28672.808</v>
+        <v>-10210.904</v>
       </c>
       <c r="V64" s="1">
-        <v>3584101.0</v>
+        <v>1276363.0</v>
       </c>
       <c r="W64" s="2"/>
       <c r="X64" s="1">
@@ -5217,10 +5218,10 @@
         <v>0.0</v>
       </c>
       <c r="AB64">
-        <v>143364.0</v>
+        <v>51055.0</v>
       </c>
       <c r="AC64" s="2">
-        <v>0.99999972099001</v>
+        <v>1.0000094017141</v>
       </c>
       <c r="AD64"/>
     </row>
@@ -5232,7 +5233,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>1917494.0</v>
+        <v>682854.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
@@ -5254,18 +5255,18 @@
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="1">
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <v>1917494.0</v>
+        <v>682854.0</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>1533995.2</v>
+        <v>546283.2</v>
       </c>
       <c r="S65" s="2">
         <v>0.01</v>
@@ -5274,10 +5275,10 @@
         <v>0.0</v>
       </c>
       <c r="U65" s="6">
-        <v>-15339.952</v>
+        <v>-5462.832</v>
       </c>
       <c r="V65" s="1">
-        <v>1917494.0</v>
+        <v>682854.0</v>
       </c>
       <c r="W65" s="2"/>
       <c r="X65" s="1">
@@ -5293,10 +5294,10 @@
         <v>0.0</v>
       </c>
       <c r="AB65">
-        <v>76700.0</v>
+        <v>27314.0</v>
       </c>
       <c r="AC65" s="2">
-        <v>1.0000031290841</v>
+        <v>0.99999414223245</v>
       </c>
       <c r="AD65"/>
     </row>
@@ -5308,7 +5309,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>2051719.0</v>
+        <v>730654.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
@@ -5330,7 +5331,7 @@
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="1">
@@ -5402,7 +5403,7 @@
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="1">
@@ -5474,7 +5475,7 @@
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="1">
@@ -5546,7 +5547,7 @@
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="1">
@@ -5618,7 +5619,7 @@
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="1">
@@ -5690,7 +5691,7 @@
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="1">
@@ -5762,7 +5763,7 @@
       </c>
       <c r="L72" s="16"/>
       <c r="M72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N72" s="16"/>
       <c r="O72" s="5">
@@ -6059,7 +6060,7 @@
   <cols>
     <col min="1" max="1" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.141" bestFit="true" customWidth="true" style="0"/>
@@ -6069,7 +6070,7 @@
     <col min="10" max="10" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="8.141" bestFit="true" customWidth="true" style="0"/>
@@ -6107,7 +6108,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -6249,15 +6250,11 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L6" s="2"/>
       <c r="M6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N6" s="2"/>
       <c r="O6" s="1">
         <v>0</v>
       </c>
@@ -6294,7 +6291,7 @@
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -6317,15 +6314,11 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L7" s="2"/>
       <c r="M7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="1">
         <v>0</v>
       </c>
@@ -6362,7 +6355,7 @@
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -6385,15 +6378,11 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L8" s="2"/>
       <c r="M8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="1">
         <v>0</v>
       </c>
@@ -6430,7 +6419,7 @@
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -6453,15 +6442,11 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L9" s="2"/>
       <c r="M9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="1">
         <v>0</v>
       </c>
@@ -6498,7 +6483,7 @@
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -6521,15 +6506,11 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L10" s="2"/>
       <c r="M10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="1">
         <v>0</v>
       </c>
@@ -6566,7 +6547,7 @@
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -6589,15 +6570,11 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L11" s="2"/>
       <c r="M11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="1">
         <v>0</v>
       </c>
@@ -6634,7 +6611,7 @@
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -6657,15 +6634,11 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L12" s="2"/>
       <c r="M12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="1">
         <v>0</v>
       </c>
@@ -6702,7 +6675,7 @@
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -6725,15 +6698,11 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L13" s="2"/>
       <c r="M13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="1">
         <v>0</v>
       </c>
@@ -6770,7 +6739,7 @@
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -6793,15 +6762,11 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L14" s="2"/>
       <c r="M14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="1">
         <v>0</v>
       </c>
@@ -6838,7 +6803,7 @@
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -6861,15 +6826,11 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="1">
         <v>0</v>
       </c>
@@ -6906,7 +6867,7 @@
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -6929,15 +6890,11 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L16" s="2"/>
       <c r="M16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="1">
         <v>0</v>
       </c>
@@ -6974,7 +6931,7 @@
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -6997,15 +6954,11 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L17" s="2"/>
       <c r="M17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="1">
         <v>0</v>
       </c>
@@ -7042,7 +6995,7 @@
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -7065,15 +7018,11 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L18" s="2"/>
       <c r="M18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="1">
         <v>0</v>
       </c>
@@ -7110,7 +7059,7 @@
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -7133,15 +7082,11 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L19" s="2"/>
       <c r="M19" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="1">
         <v>0</v>
       </c>
@@ -7178,7 +7123,7 @@
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -7201,15 +7146,11 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L20" s="2"/>
       <c r="M20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="1">
         <v>0</v>
       </c>
@@ -7246,7 +7187,7 @@
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -7269,15 +7210,11 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L21" s="2"/>
       <c r="M21" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="1">
         <v>0</v>
       </c>
@@ -7314,7 +7251,7 @@
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -7337,15 +7274,11 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L22" s="2"/>
       <c r="M22" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="1">
         <v>0</v>
       </c>
@@ -7382,7 +7315,7 @@
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -7405,15 +7338,11 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L23" s="2"/>
       <c r="M23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="1">
         <v>0</v>
       </c>
@@ -7450,7 +7379,7 @@
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -7473,15 +7402,11 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L24" s="2"/>
       <c r="M24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N24" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="1">
         <v>0</v>
       </c>
@@ -7518,7 +7443,7 @@
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -7541,15 +7466,11 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L25" s="2"/>
       <c r="M25" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N25" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="1">
         <v>0</v>
       </c>
@@ -7586,7 +7507,7 @@
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -7609,15 +7530,11 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L26" s="2"/>
       <c r="M26" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N26" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="1">
         <v>0</v>
       </c>
@@ -7654,7 +7571,7 @@
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -7677,15 +7594,11 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L27" s="2"/>
       <c r="M27" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N27" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="1">
         <v>0</v>
       </c>
@@ -7722,7 +7635,7 @@
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -7745,15 +7658,11 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L28" s="2"/>
       <c r="M28" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N28" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="1">
         <v>0</v>
       </c>
@@ -7790,7 +7699,7 @@
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -7813,15 +7722,11 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L29" s="2"/>
       <c r="M29" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N29" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="1">
         <v>0</v>
       </c>
@@ -7858,7 +7763,7 @@
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -7881,15 +7786,11 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L30" s="2"/>
       <c r="M30" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N30" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="1">
         <v>0</v>
       </c>
@@ -7926,7 +7827,7 @@
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -7949,15 +7850,11 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L31" s="2"/>
       <c r="M31" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N31" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="1">
         <v>0</v>
       </c>
@@ -7994,7 +7891,7 @@
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -8017,15 +7914,11 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L32" s="2"/>
       <c r="M32" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N32" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="1">
         <v>0</v>
       </c>
@@ -8062,7 +7955,7 @@
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -8085,15 +7978,11 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L33" s="2"/>
       <c r="M33" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N33" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="1">
         <v>0</v>
       </c>
@@ -8130,7 +8019,7 @@
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -8153,15 +8042,11 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L34" s="2"/>
       <c r="M34" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N34" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="1">
         <v>0</v>
       </c>
@@ -8198,7 +8083,7 @@
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -8221,15 +8106,11 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L35" s="2"/>
       <c r="M35" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N35" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="1">
         <v>0</v>
       </c>
@@ -8266,7 +8147,7 @@
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -8289,15 +8170,11 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L36" s="2"/>
       <c r="M36" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N36" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="1">
         <v>0</v>
       </c>
@@ -8334,7 +8211,7 @@
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -8357,15 +8234,11 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L37" s="2"/>
       <c r="M37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N37" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="1">
         <v>0</v>
       </c>
@@ -8402,7 +8275,7 @@
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -8427,15 +8300,11 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
-      <c r="L38" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="L38" s="9"/>
       <c r="M38" s="8">
-        <v>-240000.0</v>
-      </c>
-      <c r="N38" s="9">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N38" s="9"/>
       <c r="O38" s="8">
         <v>0</v>
       </c>
@@ -8451,7 +8320,7 @@
         <v>0.0</v>
       </c>
       <c r="U38" s="8">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="V38" s="8">
         <v>0</v>
@@ -8468,11 +8337,11 @@
         <v>0.0</v>
       </c>
       <c r="AB38" s="7">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="AC38" s="9"/>
       <c r="AD38" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -8497,15 +8366,11 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L39" s="2"/>
       <c r="M39" s="1">
-        <v>-252000.0</v>
-      </c>
-      <c r="N39" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="1">
         <v>0</v>
       </c>
@@ -8521,7 +8386,7 @@
         <v>0.0</v>
       </c>
       <c r="U39" s="6">
-        <v>252000.0</v>
+        <v>504000.0</v>
       </c>
       <c r="V39" s="1">
         <v>0</v>
@@ -8538,11 +8403,11 @@
         <v>0.0</v>
       </c>
       <c r="AB39">
-        <v>252000.0</v>
+        <v>504000.0</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -8567,15 +8432,11 @@
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
-      <c r="L40" s="12">
-        <v>0.5</v>
-      </c>
+      <c r="L40" s="12"/>
       <c r="M40" s="11">
-        <v>-264600.0</v>
-      </c>
-      <c r="N40" s="12">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N40" s="12"/>
       <c r="O40" s="11">
         <v>0</v>
       </c>
@@ -8591,7 +8452,7 @@
         <v>0.0</v>
       </c>
       <c r="U40" s="11">
-        <v>264600.0</v>
+        <v>529200.0</v>
       </c>
       <c r="V40" s="11">
         <v>0</v>
@@ -8608,11 +8469,11 @@
         <v>0.0</v>
       </c>
       <c r="AB40" s="10">
-        <v>264600.0</v>
+        <v>529200.0</v>
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -8637,15 +8498,11 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L41" s="2"/>
       <c r="M41" s="1">
-        <v>-277830.0</v>
-      </c>
-      <c r="N41" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="1">
         <v>0</v>
       </c>
@@ -8661,7 +8518,7 @@
         <v>0.0</v>
       </c>
       <c r="U41" s="6">
-        <v>277830.0</v>
+        <v>555660.0</v>
       </c>
       <c r="V41" s="1">
         <v>0</v>
@@ -8678,11 +8535,11 @@
         <v>0.0</v>
       </c>
       <c r="AB41">
-        <v>277830.0</v>
+        <v>555660.0</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -8707,15 +8564,11 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L42" s="2"/>
       <c r="M42" s="1">
-        <v>-291721.5</v>
-      </c>
-      <c r="N42" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="1">
         <v>0</v>
       </c>
@@ -8731,7 +8584,7 @@
         <v>0.0</v>
       </c>
       <c r="U42" s="6">
-        <v>291721.5</v>
+        <v>583443.0</v>
       </c>
       <c r="V42" s="1">
         <v>0</v>
@@ -8748,11 +8601,11 @@
         <v>0.0</v>
       </c>
       <c r="AB42">
-        <v>291722.0</v>
+        <v>583443.0</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -8777,15 +8630,11 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L43" s="2"/>
       <c r="M43" s="1">
-        <v>-306307.5</v>
-      </c>
-      <c r="N43" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="1">
         <v>0</v>
       </c>
@@ -8801,7 +8650,7 @@
         <v>0.0</v>
       </c>
       <c r="U43" s="6">
-        <v>306307.5</v>
+        <v>612615.0</v>
       </c>
       <c r="V43" s="1">
         <v>0</v>
@@ -8818,11 +8667,11 @@
         <v>0.0</v>
       </c>
       <c r="AB43">
-        <v>306308.0</v>
+        <v>612615.0</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -8847,15 +8696,11 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L44" s="2"/>
       <c r="M44" s="1">
-        <v>-321622.5</v>
-      </c>
-      <c r="N44" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="1">
         <v>0</v>
       </c>
@@ -8871,7 +8716,7 @@
         <v>0.0</v>
       </c>
       <c r="U44" s="6">
-        <v>321622.5</v>
+        <v>643245.0</v>
       </c>
       <c r="V44" s="1">
         <v>0</v>
@@ -8888,11 +8733,11 @@
         <v>0.0</v>
       </c>
       <c r="AB44">
-        <v>321623.0</v>
+        <v>643245.0</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -8917,15 +8762,11 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L45" s="2"/>
       <c r="M45" s="1">
-        <v>-337703.5</v>
-      </c>
-      <c r="N45" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="1">
         <v>0</v>
       </c>
@@ -8941,7 +8782,7 @@
         <v>0.0</v>
       </c>
       <c r="U45" s="6">
-        <v>337703.5</v>
+        <v>675407.0</v>
       </c>
       <c r="V45" s="1">
         <v>0</v>
@@ -8958,11 +8799,11 @@
         <v>0.0</v>
       </c>
       <c r="AB45">
-        <v>337704.0</v>
+        <v>675407.0</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -8987,15 +8828,11 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L46" s="2"/>
       <c r="M46" s="1">
-        <v>-354588.5</v>
-      </c>
-      <c r="N46" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="1">
         <v>0</v>
       </c>
@@ -9011,7 +8848,7 @@
         <v>0.0</v>
       </c>
       <c r="U46" s="6">
-        <v>354588.5</v>
+        <v>709177.0</v>
       </c>
       <c r="V46" s="1">
         <v>0</v>
@@ -9028,11 +8865,11 @@
         <v>0.0</v>
       </c>
       <c r="AB46">
-        <v>354589.0</v>
+        <v>709177.0</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -9057,15 +8894,11 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L47" s="2"/>
       <c r="M47" s="1">
-        <v>-372317.5</v>
-      </c>
-      <c r="N47" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="1">
         <v>0</v>
       </c>
@@ -9081,7 +8914,7 @@
         <v>0.0</v>
       </c>
       <c r="U47" s="6">
-        <v>372317.5</v>
+        <v>744635.0</v>
       </c>
       <c r="V47" s="1">
         <v>0</v>
@@ -9098,11 +8931,11 @@
         <v>0.0</v>
       </c>
       <c r="AB47">
-        <v>372318.0</v>
+        <v>744635.0</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -9127,15 +8960,11 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L48" s="2"/>
       <c r="M48" s="1">
-        <v>-390933.0</v>
-      </c>
-      <c r="N48" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="1">
         <v>0</v>
       </c>
@@ -9151,7 +8980,7 @@
         <v>0.0</v>
       </c>
       <c r="U48" s="6">
-        <v>390933.0</v>
+        <v>781866.0</v>
       </c>
       <c r="V48" s="1">
         <v>0</v>
@@ -9168,11 +8997,11 @@
         <v>0.0</v>
       </c>
       <c r="AB48">
-        <v>390933.0</v>
+        <v>781866.0</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -9197,15 +9026,11 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="L49" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L49" s="2"/>
       <c r="M49" s="1">
-        <v>-410479.5</v>
-      </c>
-      <c r="N49" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="1">
         <v>0</v>
       </c>
@@ -9221,7 +9046,7 @@
         <v>0.0</v>
       </c>
       <c r="U49" s="6">
-        <v>410479.5</v>
+        <v>820959.0</v>
       </c>
       <c r="V49" s="1">
         <v>0</v>
@@ -9238,11 +9063,11 @@
         <v>0.0</v>
       </c>
       <c r="AB49">
-        <v>410480.0</v>
+        <v>820959.0</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -9267,15 +9092,11 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L50" s="2"/>
       <c r="M50" s="1">
-        <v>-431003.0</v>
-      </c>
-      <c r="N50" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="1">
         <v>0</v>
       </c>
@@ -9291,7 +9112,7 @@
         <v>0.0</v>
       </c>
       <c r="U50" s="6">
-        <v>431003.0</v>
+        <v>862006.0</v>
       </c>
       <c r="V50" s="1">
         <v>0</v>
@@ -9308,11 +9129,11 @@
         <v>0.0</v>
       </c>
       <c r="AB50">
-        <v>431003.0</v>
+        <v>862006.0</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -9337,15 +9158,11 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-      <c r="L51" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L51" s="2"/>
       <c r="M51" s="1">
-        <v>-452553.0</v>
-      </c>
-      <c r="N51" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="1">
         <v>0</v>
       </c>
@@ -9361,7 +9178,7 @@
         <v>0.0</v>
       </c>
       <c r="U51" s="6">
-        <v>452553.0</v>
+        <v>905106.0</v>
       </c>
       <c r="V51" s="1">
         <v>0</v>
@@ -9378,11 +9195,11 @@
         <v>0.0</v>
       </c>
       <c r="AB51">
-        <v>452553.0</v>
+        <v>905106.0</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -9407,15 +9224,11 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-      <c r="L52" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L52" s="2"/>
       <c r="M52" s="1">
-        <v>-475180.5</v>
-      </c>
-      <c r="N52" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="1">
         <v>0</v>
       </c>
@@ -9431,7 +9244,7 @@
         <v>0.0</v>
       </c>
       <c r="U52" s="6">
-        <v>475180.5</v>
+        <v>950361.0</v>
       </c>
       <c r="V52" s="1">
         <v>0</v>
@@ -9448,11 +9261,11 @@
         <v>0.0</v>
       </c>
       <c r="AB52">
-        <v>475181.0</v>
+        <v>950361.0</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -9463,7 +9276,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>851390.0</v>
+        <v>303195.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
@@ -9475,15 +9288,11 @@
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
-      <c r="L53" s="14">
-        <v>0.5</v>
-      </c>
+      <c r="L53" s="14"/>
       <c r="M53" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="N53" s="14">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N53" s="14"/>
       <c r="O53" s="13">
         <v>0</v>
       </c>
@@ -9520,7 +9329,7 @@
       </c>
       <c r="AC53" s="14"/>
       <c r="AD53" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -9531,7 +9340,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>910988.0</v>
+        <v>324419.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
@@ -9543,15 +9352,11 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L54" s="2"/>
       <c r="M54" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N54" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="1">
         <v>0</v>
       </c>
@@ -9588,7 +9393,7 @@
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -9599,7 +9404,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>974757.0</v>
+        <v>347128.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
@@ -9611,15 +9416,11 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L55" s="2"/>
       <c r="M55" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N55" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="1">
         <v>0</v>
       </c>
@@ -9656,7 +9457,7 @@
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -9667,7 +9468,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>1042990.0</v>
+        <v>371427.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
@@ -9679,15 +9480,11 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-      <c r="L56" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L56" s="2"/>
       <c r="M56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N56" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="1">
         <v>0</v>
       </c>
@@ -9724,7 +9521,7 @@
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -9735,7 +9532,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>1115999.0</v>
+        <v>397427.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
@@ -9747,15 +9544,11 @@
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
-      <c r="L57" s="14">
-        <v>0.5</v>
-      </c>
+      <c r="L57" s="14"/>
       <c r="M57" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="N57" s="14">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N57" s="14"/>
       <c r="O57" s="13">
         <v>0</v>
       </c>
@@ -9792,7 +9585,7 @@
       </c>
       <c r="AC57" s="14"/>
       <c r="AD57" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -9803,7 +9596,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>1194119.0</v>
+        <v>425247.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
@@ -9815,15 +9608,11 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
-      <c r="L58" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L58" s="2"/>
       <c r="M58" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N58" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="1">
         <v>0</v>
       </c>
@@ -9860,7 +9649,7 @@
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -9871,7 +9660,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>1277707.0</v>
+        <v>455015.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
@@ -9883,15 +9672,11 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
-      <c r="L59" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L59" s="2"/>
       <c r="M59" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N59" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="1">
         <v>0</v>
       </c>
@@ -9928,7 +9713,7 @@
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -9939,7 +9724,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>1367147.0</v>
+        <v>486865.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
@@ -9951,15 +9736,11 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-      <c r="L60" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L60" s="2"/>
       <c r="M60" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N60" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="1">
         <v>0</v>
       </c>
@@ -9996,7 +9777,7 @@
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -10007,7 +9788,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>1462847.0</v>
+        <v>520946.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
@@ -10019,15 +9800,11 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-      <c r="L61" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L61" s="2"/>
       <c r="M61" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N61" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="1">
         <v>0</v>
       </c>
@@ -10064,7 +9841,7 @@
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -10075,7 +9852,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>1565247.0</v>
+        <v>557412.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
@@ -10087,15 +9864,11 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
-      <c r="L62" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L62" s="2"/>
       <c r="M62" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N62" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="1">
         <v>0</v>
       </c>
@@ -10132,7 +9905,7 @@
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -10143,7 +9916,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>1674814.0</v>
+        <v>596432.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
@@ -10155,15 +9928,11 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
-      <c r="L63" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L63" s="2"/>
       <c r="M63" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N63" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="1">
         <v>0</v>
       </c>
@@ -10200,7 +9969,7 @@
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -10211,7 +9980,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>1792051.0</v>
+        <v>638182.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
@@ -10223,15 +9992,11 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
-      <c r="L64" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L64" s="2"/>
       <c r="M64" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N64" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="1">
         <v>0</v>
       </c>
@@ -10268,7 +10033,7 @@
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -10279,7 +10044,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>1917494.0</v>
+        <v>682854.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
@@ -10291,15 +10056,11 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
-      <c r="L65" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L65" s="2"/>
       <c r="M65" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N65" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="1">
         <v>0</v>
       </c>
@@ -10336,7 +10097,7 @@
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -10347,7 +10108,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>2051719.0</v>
+        <v>730654.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
@@ -10359,15 +10120,11 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
-      <c r="L66" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L66" s="2"/>
       <c r="M66" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N66" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="1">
         <v>0</v>
       </c>
@@ -10404,7 +10161,7 @@
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -10427,15 +10184,11 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
-      <c r="L67" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L67" s="2"/>
       <c r="M67" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N67" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="1">
         <v>0</v>
       </c>
@@ -10472,7 +10225,7 @@
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -10495,15 +10248,11 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
-      <c r="L68" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L68" s="2"/>
       <c r="M68" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N68" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="1">
         <v>0</v>
       </c>
@@ -10540,7 +10289,7 @@
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -10563,15 +10312,11 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
-      <c r="L69" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L69" s="2"/>
       <c r="M69" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N69" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="1">
         <v>0</v>
       </c>
@@ -10608,7 +10353,7 @@
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -10631,15 +10376,11 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
-      <c r="L70" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L70" s="2"/>
       <c r="M70" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N70" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="1">
         <v>0</v>
       </c>
@@ -10676,7 +10417,7 @@
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -10699,15 +10440,11 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
-      <c r="L71" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L71" s="2"/>
       <c r="M71" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N71" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="1">
         <v>0</v>
       </c>
@@ -10744,7 +10481,7 @@
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -10767,15 +10504,11 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="16">
-        <v>0.5</v>
-      </c>
+      <c r="L72" s="16"/>
       <c r="M72" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N72" s="16">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N72" s="16"/>
       <c r="O72" s="5">
         <v>0</v>
       </c>
@@ -10812,7 +10545,7 @@
       </c>
       <c r="AC72" s="16"/>
       <c r="AD72" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -11083,7 +10816,7 @@
     <col min="13" max="13" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -11098,7 +10831,7 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -11106,7 +10839,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -11118,7 +10851,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -11130,7 +10863,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -11269,25 +11002,25 @@
         <v>0</v>
       </c>
       <c r="P6" s="6">
-        <v>788000</v>
+        <v>1212000</v>
       </c>
       <c r="Q6" s="2">
         <v>0.1</v>
       </c>
       <c r="R6" s="1">
-        <v>630400.0</v>
+        <v>969600.0</v>
       </c>
       <c r="S6" s="2">
         <v>0.01</v>
       </c>
       <c r="T6" s="1">
-        <v>6304.0</v>
+        <v>9696.0</v>
       </c>
       <c r="U6" s="6">
-        <v>-6304.0</v>
+        <v>-9696.0</v>
       </c>
       <c r="V6" s="1">
-        <v>788000</v>
+        <v>1212000</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="1">
@@ -11301,11 +11034,11 @@
         <v>0.0</v>
       </c>
       <c r="AB6">
-        <v>31520.0</v>
+        <v>48480.0</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -11337,25 +11070,25 @@
         <v>0</v>
       </c>
       <c r="P7" s="6">
-        <v>1169200</v>
+        <v>1358400</v>
       </c>
       <c r="Q7" s="2">
         <v>0.07</v>
       </c>
       <c r="R7" s="1">
-        <v>935360.0</v>
+        <v>1086720.0</v>
       </c>
       <c r="S7" s="2">
         <v>0.01</v>
       </c>
       <c r="T7" s="1">
-        <v>9353.6</v>
+        <v>10867.2</v>
       </c>
       <c r="U7" s="6">
-        <v>-9353.6</v>
+        <v>-10867.2</v>
       </c>
       <c r="V7" s="1">
-        <v>1169200</v>
+        <v>1358400</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="1">
@@ -11369,11 +11102,11 @@
         <v>0.0</v>
       </c>
       <c r="AB7">
-        <v>46768.0</v>
+        <v>54336.0</v>
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -11405,25 +11138,25 @@
         <v>0</v>
       </c>
       <c r="P8" s="6">
-        <v>1568564</v>
+        <v>1479948</v>
       </c>
       <c r="Q8" s="2">
         <v>0.07</v>
       </c>
       <c r="R8" s="1">
-        <v>1254851.2</v>
+        <v>1183958.4</v>
       </c>
       <c r="S8" s="2">
         <v>0.01</v>
       </c>
       <c r="T8" s="1">
-        <v>12548.512</v>
+        <v>11839.584</v>
       </c>
       <c r="U8" s="6">
-        <v>-12548.512</v>
+        <v>-11839.584</v>
       </c>
       <c r="V8" s="1">
-        <v>1568564</v>
+        <v>1479948</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="1">
@@ -11437,11 +11170,11 @@
         <v>0.0</v>
       </c>
       <c r="AB8">
-        <v>62743.0</v>
+        <v>59198.0</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -11473,25 +11206,25 @@
         <v>0</v>
       </c>
       <c r="P9" s="6">
-        <v>2011759</v>
+        <v>1611327</v>
       </c>
       <c r="Q9" s="2">
         <v>0.07</v>
       </c>
       <c r="R9" s="1">
-        <v>1609407.2</v>
+        <v>1289061.6</v>
       </c>
       <c r="S9" s="2">
         <v>0.01</v>
       </c>
       <c r="T9" s="1">
-        <v>16094.072</v>
+        <v>12890.616</v>
       </c>
       <c r="U9" s="6">
-        <v>-16094.072</v>
+        <v>-12890.616</v>
       </c>
       <c r="V9" s="1">
-        <v>2011759</v>
+        <v>1611327</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="1">
@@ -11505,11 +11238,11 @@
         <v>0.0</v>
       </c>
       <c r="AB9">
-        <v>80470.0</v>
+        <v>64453.0</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -11541,25 +11274,25 @@
         <v>0</v>
       </c>
       <c r="P10" s="6">
-        <v>2502646</v>
+        <v>1753292</v>
       </c>
       <c r="Q10" s="2">
         <v>0.07</v>
       </c>
       <c r="R10" s="1">
-        <v>2002116.8</v>
+        <v>1402633.6</v>
       </c>
       <c r="S10" s="2">
         <v>0.01</v>
       </c>
       <c r="T10" s="1">
-        <v>20021.168</v>
+        <v>14026.336</v>
       </c>
       <c r="U10" s="6">
-        <v>-20021.168</v>
+        <v>-14026.336</v>
       </c>
       <c r="V10" s="1">
-        <v>2502646</v>
+        <v>1753292</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="1">
@@ -11573,11 +11306,11 @@
         <v>0.0</v>
       </c>
       <c r="AB10">
-        <v>100106.0</v>
+        <v>70132.0</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -11609,25 +11342,25 @@
         <v>0</v>
       </c>
       <c r="P11" s="6">
-        <v>3045403</v>
+        <v>1906653</v>
       </c>
       <c r="Q11" s="2">
         <v>0.07</v>
       </c>
       <c r="R11" s="1">
-        <v>2436322.4</v>
+        <v>1525322.4</v>
       </c>
       <c r="S11" s="2">
         <v>0.01</v>
       </c>
       <c r="T11" s="1">
-        <v>24363.224</v>
+        <v>15253.224</v>
       </c>
       <c r="U11" s="6">
-        <v>-24363.224</v>
+        <v>-15253.224</v>
       </c>
       <c r="V11" s="1">
-        <v>3045403</v>
+        <v>1906653</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="1">
@@ -11641,11 +11374,11 @@
         <v>0.0</v>
       </c>
       <c r="AB11">
-        <v>121816.0</v>
+        <v>76266.0</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -11677,25 +11410,25 @@
         <v>0</v>
       </c>
       <c r="P12" s="6">
-        <v>3644525</v>
+        <v>2072281</v>
       </c>
       <c r="Q12" s="2">
         <v>0.07</v>
       </c>
       <c r="R12" s="1">
-        <v>2915620.0</v>
+        <v>1657824.8</v>
       </c>
       <c r="S12" s="2">
         <v>0.01</v>
       </c>
       <c r="T12" s="1">
-        <v>29156.2</v>
+        <v>16578.248</v>
       </c>
       <c r="U12" s="6">
-        <v>-29156.2</v>
+        <v>-16578.248</v>
       </c>
       <c r="V12" s="1">
-        <v>3644525</v>
+        <v>2072281</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="1">
@@ -11709,11 +11442,11 @@
         <v>0.0</v>
       </c>
       <c r="AB12">
-        <v>145781.0</v>
+        <v>82891.0</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -11745,25 +11478,25 @@
         <v>0</v>
       </c>
       <c r="P13" s="6">
-        <v>4304882</v>
+        <v>2251111</v>
       </c>
       <c r="Q13" s="2">
         <v>0.07</v>
       </c>
       <c r="R13" s="1">
-        <v>3443905.6</v>
+        <v>1800888.8</v>
       </c>
       <c r="S13" s="2">
         <v>0.01</v>
       </c>
       <c r="T13" s="1">
-        <v>34439.056</v>
+        <v>18008.888</v>
       </c>
       <c r="U13" s="6">
-        <v>-34439.056</v>
+        <v>-18008.888</v>
       </c>
       <c r="V13" s="1">
-        <v>4304882</v>
+        <v>2251111</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="1">
@@ -11777,11 +11510,11 @@
         <v>0.0</v>
       </c>
       <c r="AB13">
-        <v>172195.0</v>
+        <v>90044.0</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -11813,25 +11546,25 @@
         <v>0</v>
       </c>
       <c r="P14" s="6">
-        <v>5031732</v>
+        <v>2444148</v>
       </c>
       <c r="Q14" s="2">
         <v>0.07</v>
       </c>
       <c r="R14" s="1">
-        <v>4025385.6</v>
+        <v>1955318.4</v>
       </c>
       <c r="S14" s="2">
         <v>0.01</v>
       </c>
       <c r="T14" s="1">
-        <v>40253.856</v>
+        <v>19553.184</v>
       </c>
       <c r="U14" s="6">
-        <v>-40253.856</v>
+        <v>-19553.184</v>
       </c>
       <c r="V14" s="1">
-        <v>5031732</v>
+        <v>2444148</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="1">
@@ -11845,11 +11578,11 @@
         <v>0.0</v>
       </c>
       <c r="AB14">
-        <v>201269.0</v>
+        <v>97766.0</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -11881,25 +11614,25 @@
         <v>0</v>
       </c>
       <c r="P15" s="6">
-        <v>5830737</v>
+        <v>2652470</v>
       </c>
       <c r="Q15" s="2">
         <v>0.07</v>
       </c>
       <c r="R15" s="1">
-        <v>4664589.6</v>
+        <v>2121976.0</v>
       </c>
       <c r="S15" s="2">
         <v>0.01</v>
       </c>
       <c r="T15" s="1">
-        <v>46645.896</v>
+        <v>21219.76</v>
       </c>
       <c r="U15" s="6">
-        <v>-46645.896</v>
+        <v>-21219.76</v>
       </c>
       <c r="V15" s="1">
-        <v>5830737</v>
+        <v>2652470</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="1">
@@ -11913,11 +11646,11 @@
         <v>0.0</v>
       </c>
       <c r="AB15">
-        <v>233229.0</v>
+        <v>106099.0</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -11949,25 +11682,25 @@
         <v>0</v>
       </c>
       <c r="P16" s="6">
-        <v>6708005</v>
+        <v>2877236</v>
       </c>
       <c r="Q16" s="2">
         <v>0.07</v>
       </c>
       <c r="R16" s="1">
-        <v>5366404.0</v>
+        <v>2301788.8</v>
       </c>
       <c r="S16" s="2">
         <v>0.01</v>
       </c>
       <c r="T16" s="1">
-        <v>53664.04</v>
+        <v>23017.888</v>
       </c>
       <c r="U16" s="6">
-        <v>-53664.04</v>
+        <v>-23017.888</v>
       </c>
       <c r="V16" s="1">
-        <v>6708005</v>
+        <v>2877236</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="1">
@@ -11981,11 +11714,11 @@
         <v>0.0</v>
       </c>
       <c r="AB16">
-        <v>268320.0</v>
+        <v>115089.0</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -12017,25 +11750,25 @@
         <v>0</v>
       </c>
       <c r="P17" s="6">
-        <v>7670141</v>
+        <v>3119691</v>
       </c>
       <c r="Q17" s="2">
         <v>0.07</v>
       </c>
       <c r="R17" s="1">
-        <v>6136112.8</v>
+        <v>2495752.8</v>
       </c>
       <c r="S17" s="2">
         <v>0.01</v>
       </c>
       <c r="T17" s="1">
-        <v>61361.128</v>
+        <v>24957.528</v>
       </c>
       <c r="U17" s="6">
-        <v>-61361.128</v>
+        <v>-24957.528</v>
       </c>
       <c r="V17" s="1">
-        <v>7670141</v>
+        <v>3119691</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="1">
@@ -12049,11 +11782,11 @@
         <v>0.0</v>
       </c>
       <c r="AB17">
-        <v>306806.0</v>
+        <v>124788.0</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -12085,25 +11818,25 @@
         <v>0</v>
       </c>
       <c r="P18" s="6">
-        <v>8724251</v>
+        <v>3381169</v>
       </c>
       <c r="Q18" s="2">
         <v>0.07</v>
       </c>
       <c r="R18" s="1">
-        <v>6979400.8</v>
+        <v>2704935.2</v>
       </c>
       <c r="S18" s="2">
         <v>0.01</v>
       </c>
       <c r="T18" s="1">
-        <v>69794.008</v>
+        <v>27049.352</v>
       </c>
       <c r="U18" s="6">
-        <v>-69794.008</v>
+        <v>-27049.352</v>
       </c>
       <c r="V18" s="1">
-        <v>8724251</v>
+        <v>3381169</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="1">
@@ -12117,11 +11850,11 @@
         <v>0.0</v>
       </c>
       <c r="AB18">
-        <v>348970.0</v>
+        <v>135247.0</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -12153,25 +11886,25 @@
         <v>0</v>
       </c>
       <c r="P19" s="6">
-        <v>9878009</v>
+        <v>3663106</v>
       </c>
       <c r="Q19" s="2">
         <v>0.07</v>
       </c>
       <c r="R19" s="1">
-        <v>7902407.2</v>
+        <v>2930484.8</v>
       </c>
       <c r="S19" s="2">
         <v>0.01</v>
       </c>
       <c r="T19" s="1">
-        <v>79024.072</v>
+        <v>29304.848</v>
       </c>
       <c r="U19" s="6">
-        <v>-79024.072</v>
+        <v>-29304.848</v>
       </c>
       <c r="V19" s="1">
-        <v>9878009</v>
+        <v>3663106</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="1">
@@ -12185,11 +11918,11 @@
         <v>0.0</v>
       </c>
       <c r="AB19">
-        <v>395120.0</v>
+        <v>146524.0</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -12221,25 +11954,25 @@
         <v>0</v>
       </c>
       <c r="P20" s="6">
-        <v>11139686</v>
+        <v>3967041</v>
       </c>
       <c r="Q20" s="2">
         <v>0.07</v>
       </c>
       <c r="R20" s="1">
-        <v>8911748.8</v>
+        <v>3173632.8</v>
       </c>
       <c r="S20" s="2">
         <v>0.01</v>
       </c>
       <c r="T20" s="1">
-        <v>89117.488</v>
+        <v>31736.328</v>
       </c>
       <c r="U20" s="6">
-        <v>-89117.488</v>
+        <v>-31736.328</v>
       </c>
       <c r="V20" s="1">
-        <v>11139686</v>
+        <v>3967041</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="1">
@@ -12253,11 +11986,11 @@
         <v>0.0</v>
       </c>
       <c r="AB20">
-        <v>445587.0</v>
+        <v>158682.0</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -12321,7 +12054,7 @@
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -12385,7 +12118,7 @@
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -12449,7 +12182,7 @@
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -12513,7 +12246,7 @@
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -12577,7 +12310,7 @@
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -12641,7 +12374,7 @@
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -12705,7 +12438,7 @@
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -12769,7 +12502,7 @@
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -12833,7 +12566,7 @@
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -12897,7 +12630,7 @@
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -12961,7 +12694,7 @@
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -13025,7 +12758,7 @@
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -13089,7 +12822,7 @@
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -13153,7 +12886,7 @@
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -13217,7 +12950,7 @@
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -13281,7 +13014,7 @@
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -13345,7 +13078,7 @@
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -13409,7 +13142,7 @@
       </c>
       <c r="AC38" s="9"/>
       <c r="AD38" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -13473,7 +13206,7 @@
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -13537,7 +13270,7 @@
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -13601,7 +13334,7 @@
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -13665,7 +13398,7 @@
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -13729,7 +13462,7 @@
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -13793,7 +13526,7 @@
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -13857,7 +13590,7 @@
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -13921,7 +13654,7 @@
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -13985,7 +13718,7 @@
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -14049,7 +13782,7 @@
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -14113,7 +13846,7 @@
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -14177,7 +13910,7 @@
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -14241,7 +13974,7 @@
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -14273,21 +14006,25 @@
         <v>0</v>
       </c>
       <c r="P52" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="2"/>
+        <v>1080000</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>0.1</v>
+      </c>
       <c r="R52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="S52" s="2"/>
+        <v>864000.0</v>
+      </c>
+      <c r="S52" s="2">
+        <v>0.01</v>
+      </c>
       <c r="T52" s="1">
-        <v>0.0</v>
+        <v>8640.0</v>
       </c>
       <c r="U52" s="6">
-        <v>0.0</v>
+        <v>-8640.0</v>
       </c>
       <c r="V52" s="1">
-        <v>0</v>
+        <v>1080000</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
@@ -14301,11 +14038,11 @@
         <v>0.0</v>
       </c>
       <c r="AB52">
-        <v>0.0</v>
+        <v>43200.0</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -14337,25 +14074,25 @@
         <v>0</v>
       </c>
       <c r="P53" s="13">
-        <v>11068074.0</v>
+        <v>3941539.0</v>
       </c>
       <c r="Q53" s="14">
         <v>0.07</v>
       </c>
       <c r="R53" s="13">
-        <v>8854459.2</v>
+        <v>3153231.2</v>
       </c>
       <c r="S53" s="14">
         <v>0.01</v>
       </c>
       <c r="T53" s="13">
-        <v>88544.592</v>
+        <v>31532.312</v>
       </c>
       <c r="U53" s="13">
-        <v>-88544.592</v>
+        <v>-31532.312</v>
       </c>
       <c r="V53" s="13">
-        <v>11068074.0</v>
+        <v>3941539.0</v>
       </c>
       <c r="W53" s="14"/>
       <c r="X53" s="13">
@@ -14369,11 +14106,11 @@
         <v>0.0</v>
       </c>
       <c r="AB53" s="3">
-        <v>442723.0</v>
+        <v>157662.0</v>
       </c>
       <c r="AC53" s="14"/>
       <c r="AD53" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -14405,25 +14142,25 @@
         <v>0</v>
       </c>
       <c r="P54" s="6">
-        <v>10931851.0</v>
+        <v>3893028.0</v>
       </c>
       <c r="Q54" s="2">
         <v>0.07</v>
       </c>
       <c r="R54" s="1">
-        <v>8745480.8</v>
+        <v>3114422.4</v>
       </c>
       <c r="S54" s="2">
         <v>0.01</v>
       </c>
       <c r="T54" s="1">
-        <v>87454.808</v>
+        <v>31144.224</v>
       </c>
       <c r="U54" s="6">
-        <v>-87454.808</v>
+        <v>-31144.224</v>
       </c>
       <c r="V54" s="1">
-        <v>10931851.0</v>
+        <v>3893028.0</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="1">
@@ -14437,11 +14174,11 @@
         <v>0.0</v>
       </c>
       <c r="AB54">
-        <v>437274.0</v>
+        <v>155721.0</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -14473,25 +14210,25 @@
         <v>0</v>
       </c>
       <c r="P55" s="6">
-        <v>10722324.0</v>
+        <v>3818412.0</v>
       </c>
       <c r="Q55" s="2">
         <v>0.07</v>
       </c>
       <c r="R55" s="1">
-        <v>8577859.2</v>
+        <v>3054729.6</v>
       </c>
       <c r="S55" s="2">
         <v>0.01</v>
       </c>
       <c r="T55" s="1">
-        <v>85778.592</v>
+        <v>30547.296</v>
       </c>
       <c r="U55" s="6">
-        <v>-85778.592</v>
+        <v>-30547.296</v>
       </c>
       <c r="V55" s="1">
-        <v>10722324.0</v>
+        <v>3818412.0</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="1">
@@ -14505,11 +14242,11 @@
         <v>0.0</v>
       </c>
       <c r="AB55">
-        <v>428893.0</v>
+        <v>152736.0</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -14541,25 +14278,25 @@
         <v>0</v>
       </c>
       <c r="P56" s="6">
-        <v>10429897.0</v>
+        <v>3714274.0</v>
       </c>
       <c r="Q56" s="2">
         <v>0.07</v>
       </c>
       <c r="R56" s="1">
-        <v>8343917.6</v>
+        <v>2971419.2</v>
       </c>
       <c r="S56" s="2">
         <v>0.01</v>
       </c>
       <c r="T56" s="1">
-        <v>83439.176</v>
+        <v>29714.192</v>
       </c>
       <c r="U56" s="6">
-        <v>-83439.176</v>
+        <v>-29714.192</v>
       </c>
       <c r="V56" s="1">
-        <v>10429897.0</v>
+        <v>3714274.0</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="1">
@@ -14573,11 +14310,11 @@
         <v>0.0</v>
       </c>
       <c r="AB56">
-        <v>417196.0</v>
+        <v>148571.0</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -14609,25 +14346,25 @@
         <v>0</v>
       </c>
       <c r="P57" s="13">
-        <v>10043991.0</v>
+        <v>3576846.0</v>
       </c>
       <c r="Q57" s="14">
         <v>0.07</v>
       </c>
       <c r="R57" s="13">
-        <v>8035192.8</v>
+        <v>2861476.8</v>
       </c>
       <c r="S57" s="14">
         <v>0.01</v>
       </c>
       <c r="T57" s="13">
-        <v>80351.928</v>
+        <v>28614.768</v>
       </c>
       <c r="U57" s="13">
-        <v>-80351.928</v>
+        <v>-28614.768</v>
       </c>
       <c r="V57" s="13">
-        <v>10043991.0</v>
+        <v>3576846.0</v>
       </c>
       <c r="W57" s="14"/>
       <c r="X57" s="13">
@@ -14641,11 +14378,11 @@
         <v>0.0</v>
       </c>
       <c r="AB57" s="3">
-        <v>401760.0</v>
+        <v>143074.0</v>
       </c>
       <c r="AC57" s="14"/>
       <c r="AD57" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -14677,25 +14414,25 @@
         <v>0</v>
       </c>
       <c r="P58" s="6">
-        <v>9552951.0</v>
+        <v>3401978.0</v>
       </c>
       <c r="Q58" s="2">
         <v>0.07</v>
       </c>
       <c r="R58" s="1">
-        <v>7642360.8</v>
+        <v>2721582.4</v>
       </c>
       <c r="S58" s="2">
         <v>0.01</v>
       </c>
       <c r="T58" s="1">
-        <v>76423.608</v>
+        <v>27215.824</v>
       </c>
       <c r="U58" s="6">
-        <v>-76423.608</v>
+        <v>-27215.824</v>
       </c>
       <c r="V58" s="1">
-        <v>9552951.0</v>
+        <v>3401978.0</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="1">
@@ -14709,11 +14446,11 @@
         <v>0.0</v>
       </c>
       <c r="AB58">
-        <v>382118.0</v>
+        <v>136079.0</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -14745,25 +14482,25 @@
         <v>0</v>
       </c>
       <c r="P59" s="6">
-        <v>8943951.0</v>
+        <v>3185101.0</v>
       </c>
       <c r="Q59" s="2">
         <v>0.07</v>
       </c>
       <c r="R59" s="1">
-        <v>7155160.8</v>
+        <v>2548080.8</v>
       </c>
       <c r="S59" s="2">
         <v>0.01</v>
       </c>
       <c r="T59" s="1">
-        <v>71551.608</v>
+        <v>25480.808</v>
       </c>
       <c r="U59" s="6">
-        <v>-71551.608</v>
+        <v>-25480.808</v>
       </c>
       <c r="V59" s="1">
-        <v>8943951.0</v>
+        <v>3185101.0</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="1">
@@ -14777,11 +14514,11 @@
         <v>0.0</v>
       </c>
       <c r="AB59">
-        <v>357758.0</v>
+        <v>127404.0</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -14813,25 +14550,25 @@
         <v>0</v>
       </c>
       <c r="P60" s="6">
-        <v>8202881.0</v>
+        <v>2921193.0</v>
       </c>
       <c r="Q60" s="2">
         <v>0.07</v>
       </c>
       <c r="R60" s="1">
-        <v>6562304.8</v>
+        <v>2336954.4</v>
       </c>
       <c r="S60" s="2">
         <v>0.01</v>
       </c>
       <c r="T60" s="1">
-        <v>65623.048</v>
+        <v>23369.544</v>
       </c>
       <c r="U60" s="6">
-        <v>-65623.048</v>
+        <v>-23369.544</v>
       </c>
       <c r="V60" s="1">
-        <v>8202881.0</v>
+        <v>2921193.0</v>
       </c>
       <c r="W60" s="2"/>
       <c r="X60" s="1">
@@ -14845,11 +14582,11 @@
         <v>0.0</v>
       </c>
       <c r="AB60">
-        <v>328115.0</v>
+        <v>116848.0</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -14881,25 +14618,25 @@
         <v>0</v>
       </c>
       <c r="P61" s="6">
-        <v>7314236.0</v>
+        <v>2604731.0</v>
       </c>
       <c r="Q61" s="2">
         <v>0.07</v>
       </c>
       <c r="R61" s="1">
-        <v>5851388.8</v>
+        <v>2083784.8</v>
       </c>
       <c r="S61" s="2">
         <v>0.01</v>
       </c>
       <c r="T61" s="1">
-        <v>58513.888</v>
+        <v>20837.848</v>
       </c>
       <c r="U61" s="6">
-        <v>-58513.888</v>
+        <v>-20837.848</v>
       </c>
       <c r="V61" s="1">
-        <v>7314236.0</v>
+        <v>2604731.0</v>
       </c>
       <c r="W61" s="2"/>
       <c r="X61" s="1">
@@ -14913,11 +14650,11 @@
         <v>0.0</v>
       </c>
       <c r="AB61">
-        <v>292569.0</v>
+        <v>104189.0</v>
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -14949,25 +14686,25 @@
         <v>0</v>
       </c>
       <c r="P62" s="6">
-        <v>6260986.0</v>
+        <v>2229650.0</v>
       </c>
       <c r="Q62" s="2">
         <v>0.07</v>
       </c>
       <c r="R62" s="1">
-        <v>5008788.8</v>
+        <v>1783720.0</v>
       </c>
       <c r="S62" s="2">
         <v>0.01</v>
       </c>
       <c r="T62" s="1">
-        <v>50087.888</v>
+        <v>17837.2</v>
       </c>
       <c r="U62" s="6">
-        <v>-50087.888</v>
+        <v>-17837.2</v>
       </c>
       <c r="V62" s="1">
-        <v>6260986.0</v>
+        <v>2229650.0</v>
       </c>
       <c r="W62" s="2"/>
       <c r="X62" s="1">
@@ -14981,11 +14718,11 @@
         <v>0.0</v>
       </c>
       <c r="AB62">
-        <v>250439.0</v>
+        <v>89186.0</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -15017,25 +14754,25 @@
         <v>0</v>
       </c>
       <c r="P63" s="6">
-        <v>5024441.0</v>
+        <v>1789294.0</v>
       </c>
       <c r="Q63" s="2">
         <v>0.07</v>
       </c>
       <c r="R63" s="1">
-        <v>4019552.8</v>
+        <v>1431435.2</v>
       </c>
       <c r="S63" s="2">
         <v>0.01</v>
       </c>
       <c r="T63" s="1">
-        <v>40195.528</v>
+        <v>14314.352</v>
       </c>
       <c r="U63" s="6">
-        <v>-40195.528</v>
+        <v>-14314.352</v>
       </c>
       <c r="V63" s="1">
-        <v>5024441.0</v>
+        <v>1789294.0</v>
       </c>
       <c r="W63" s="2"/>
       <c r="X63" s="1">
@@ -15049,11 +14786,11 @@
         <v>0.0</v>
       </c>
       <c r="AB63">
-        <v>200978.0</v>
+        <v>71572.0</v>
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -15085,25 +14822,25 @@
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <v>3584101.0</v>
+        <v>1276363.0</v>
       </c>
       <c r="Q64" s="2">
         <v>0.07</v>
       </c>
       <c r="R64" s="1">
-        <v>2867280.8</v>
+        <v>1021090.4</v>
       </c>
       <c r="S64" s="2">
         <v>0.01</v>
       </c>
       <c r="T64" s="1">
-        <v>28672.808</v>
+        <v>10210.904</v>
       </c>
       <c r="U64" s="6">
-        <v>-28672.808</v>
+        <v>-10210.904</v>
       </c>
       <c r="V64" s="1">
-        <v>3584101.0</v>
+        <v>1276363.0</v>
       </c>
       <c r="W64" s="2"/>
       <c r="X64" s="1">
@@ -15117,11 +14854,11 @@
         <v>0.0</v>
       </c>
       <c r="AB64">
-        <v>143364.0</v>
+        <v>51055.0</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -15153,25 +14890,25 @@
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <v>1917494.0</v>
+        <v>682854.0</v>
       </c>
       <c r="Q65" s="2">
         <v>0.07</v>
       </c>
       <c r="R65" s="1">
-        <v>1533995.2</v>
+        <v>546283.2</v>
       </c>
       <c r="S65" s="2">
         <v>0.01</v>
       </c>
       <c r="T65" s="1">
-        <v>15339.952</v>
+        <v>5462.832</v>
       </c>
       <c r="U65" s="6">
-        <v>-15339.952</v>
+        <v>-5462.832</v>
       </c>
       <c r="V65" s="1">
-        <v>1917494.0</v>
+        <v>682854.0</v>
       </c>
       <c r="W65" s="2"/>
       <c r="X65" s="1">
@@ -15185,11 +14922,11 @@
         <v>0.0</v>
       </c>
       <c r="AB65">
-        <v>76700.0</v>
+        <v>27314.0</v>
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -15255,7 +14992,7 @@
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -15321,7 +15058,7 @@
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -15387,7 +15124,7 @@
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -15453,7 +15190,7 @@
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -15519,7 +15256,7 @@
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -15585,7 +15322,7 @@
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -15651,7 +15388,7 @@
       </c>
       <c r="AC72" s="16"/>
       <c r="AD72" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -15909,10 +15646,10 @@
   <sheetData>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -16073,6 +15810,12 @@
     <row r="37" spans="1:3">
       <c r="A37">
         <v>2022</v>
+      </c>
+      <c r="B37">
+        <v>100.0</v>
+      </c>
+      <c r="C37">
+        <v>100.0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
